--- a/biology/Histoire de la zoologie et de la botanique/Franz_Ruschka/Franz_Ruschka.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Franz_Ruschka/Franz_Ruschka.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Franz Ruschka était un juriste et entomologiste autrichien, né à Vienne (Autriche) le 8 novembre 1882 et décédé le 10 mai 1942 (à 59 ans) dans la même ville[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Franz Ruschka était un juriste et entomologiste autrichien, né à Vienne (Autriche) le 8 novembre 1882 et décédé le 10 mai 1942 (à 59 ans) dans la même ville.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Über erzogene Chalcidien aus der Sammlung der k. k. landwirtschaftlich-bakteriologischen und Pflanzenschutzstation in Wien. In: Verhandlungen der Zoologisch-Botanischen Gesellschaft in Wien. 62. Jahrgang (1912), landesmuseum.at
 Zur Kenntnis der Wasser-Hymenopteren. Mit A. Thienemann. In: Zeitschrift für wissenschaftliche Insektenbiologie. 9. Band (1913)
